--- a/data/clean_data/Data_pivot.xlsx
+++ b/data/clean_data/Data_pivot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N236"/>
+  <dimension ref="A1:O236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>Disease_index</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Pollution_category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -511,10 +516,8 @@
           <t>Odisha</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B2" t="n">
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1256.5</v>
@@ -552,6 +555,11 @@
       <c r="N2" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -559,10 +567,8 @@
           <t>Kerala</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B3" t="n">
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>826.75</v>
@@ -600,6 +606,11 @@
       <c r="N3" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -607,10 +618,8 @@
           <t>Meghalaya</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B4" t="n">
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>120</v>
@@ -648,6 +657,11 @@
       <c r="N4" t="n">
         <v>43.85555555555555</v>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -655,10 +669,8 @@
           <t>Kerala</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B5" t="n">
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>1054</v>
@@ -696,6 +708,11 @@
       <c r="N5" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -703,10 +720,8 @@
           <t>Mizoram</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B6" t="n">
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>128</v>
@@ -744,6 +759,11 @@
       <c r="N6" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -751,10 +771,8 @@
           <t>Kerala</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B7" t="n">
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1007</v>
@@ -792,6 +810,11 @@
       <c r="N7" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -799,10 +822,8 @@
           <t>Mizoram</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B8" t="n">
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>263</v>
@@ -840,6 +861,11 @@
       <c r="N8" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -847,10 +873,8 @@
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B9" t="n">
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>927</v>
@@ -888,6 +912,11 @@
       <c r="N9" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -895,10 +924,8 @@
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B10" t="n">
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>859.75</v>
@@ -936,6 +963,11 @@
       <c r="N10" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -943,10 +975,8 @@
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B11" t="n">
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>614.75</v>
@@ -984,6 +1014,11 @@
       <c r="N11" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -991,10 +1026,8 @@
           <t>Kerala</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B12" t="n">
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>686</v>
@@ -1032,6 +1065,11 @@
       <c r="N12" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1039,10 +1077,8 @@
           <t>Kerala</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B13" t="n">
+        <v>12</v>
       </c>
       <c r="C13" t="n">
         <v>958.67</v>
@@ -1080,6 +1116,11 @@
       <c r="N13" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1087,10 +1128,8 @@
           <t>Meghalaya</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B14" t="n">
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>278</v>
@@ -1128,6 +1167,11 @@
       <c r="N14" t="n">
         <v>41.03666666666667</v>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1135,10 +1179,8 @@
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B15" t="n">
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>1058.25</v>
@@ -1176,6 +1218,11 @@
       <c r="N15" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1183,10 +1230,8 @@
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B16" t="n">
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>825.75</v>
@@ -1224,6 +1269,11 @@
       <c r="N16" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1231,10 +1281,8 @@
           <t>Meghalaya</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B17" t="n">
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>133</v>
@@ -1272,6 +1320,11 @@
       <c r="N17" t="n">
         <v>49.06111111111111</v>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1279,10 +1332,8 @@
           <t>Kerala</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B18" t="n">
+        <v>11</v>
       </c>
       <c r="C18" t="n">
         <v>1146.56</v>
@@ -1320,6 +1371,11 @@
       <c r="N18" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1327,10 +1383,8 @@
           <t>Meghalaya</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B19" t="n">
+        <v>12</v>
       </c>
       <c r="C19" t="n">
         <v>202</v>
@@ -1368,6 +1422,11 @@
       <c r="N19" t="n">
         <v>48.00111111111111</v>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1375,10 +1434,8 @@
           <t>Kerala</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B20" t="n">
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>536.12</v>
@@ -1416,6 +1473,11 @@
       <c r="N20" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1423,10 +1485,8 @@
           <t>Mizoram</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B21" t="n">
+        <v>12</v>
       </c>
       <c r="C21" t="n">
         <v>280</v>
@@ -1464,6 +1524,11 @@
       <c r="N21" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1471,10 +1536,8 @@
           <t>Punjab</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B22" t="n">
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>405.78</v>
@@ -1512,6 +1575,11 @@
       <c r="N22" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1519,10 +1587,8 @@
           <t>Kerala</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B23" t="n">
+        <v>7</v>
       </c>
       <c r="C23" t="n">
         <v>741.75</v>
@@ -1560,6 +1626,11 @@
       <c r="N23" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1567,10 +1638,8 @@
           <t>Meghalaya</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B24" t="n">
+        <v>9</v>
       </c>
       <c r="C24" t="n">
         <v>152</v>
@@ -1608,6 +1677,11 @@
       <c r="N24" t="n">
         <v>45.96666666666665</v>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1615,10 +1689,8 @@
           <t>Mizoram</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B25" t="n">
+        <v>3</v>
       </c>
       <c r="C25" t="n">
         <v>417</v>
@@ -1656,6 +1728,11 @@
       <c r="N25" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1663,10 +1740,8 @@
           <t>Mizoram</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B26" t="n">
+        <v>4</v>
       </c>
       <c r="C26" t="n">
         <v>300</v>
@@ -1704,6 +1779,11 @@
       <c r="N26" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1711,10 +1791,8 @@
           <t>Meghalaya</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B27" t="n">
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>349</v>
@@ -1752,6 +1830,11 @@
       <c r="N27" t="n">
         <v>51.89</v>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1759,10 +1842,8 @@
           <t>Punjab</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B28" t="n">
+        <v>7</v>
       </c>
       <c r="C28" t="n">
         <v>421.78</v>
@@ -1800,6 +1881,11 @@
       <c r="N28" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1807,10 +1893,8 @@
           <t>Punjab</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B29" t="n">
+        <v>9</v>
       </c>
       <c r="C29" t="n">
         <v>463.21</v>
@@ -1848,6 +1932,11 @@
       <c r="N29" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1855,10 +1944,8 @@
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B30" t="n">
+        <v>7</v>
       </c>
       <c r="C30" t="n">
         <v>361.78</v>
@@ -1896,6 +1983,11 @@
       <c r="N30" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1903,10 +1995,8 @@
           <t>West Bengal</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B31" t="n">
+        <v>5</v>
       </c>
       <c r="C31" t="n">
         <v>360.18</v>
@@ -1944,6 +2034,11 @@
       <c r="N31" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1951,10 +2046,8 @@
           <t>Mizoram</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B32" t="n">
+        <v>6</v>
       </c>
       <c r="C32" t="n">
         <v>168</v>
@@ -1992,6 +2085,11 @@
       <c r="N32" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1999,10 +2097,8 @@
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B33" t="n">
+        <v>11</v>
       </c>
       <c r="C33" t="n">
         <v>565.95</v>
@@ -2040,6 +2136,11 @@
       <c r="N33" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2047,10 +2148,8 @@
           <t>Kerala</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B34" t="n">
+        <v>6</v>
       </c>
       <c r="C34" t="n">
         <v>836.12</v>
@@ -2088,6 +2187,11 @@
       <c r="N34" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2095,10 +2199,8 @@
           <t>West Bengal</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B35" t="n">
+        <v>6</v>
       </c>
       <c r="C35" t="n">
         <v>416.18</v>
@@ -2136,6 +2238,11 @@
       <c r="N35" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2143,10 +2250,8 @@
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B36" t="n">
+        <v>8</v>
       </c>
       <c r="C36" t="n">
         <v>362.37</v>
@@ -2184,6 +2289,11 @@
       <c r="N36" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2191,10 +2301,8 @@
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B37" t="n">
+        <v>4</v>
       </c>
       <c r="C37" t="n">
         <v>459.37</v>
@@ -2232,6 +2340,11 @@
       <c r="N37" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2239,10 +2352,8 @@
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B38" t="n">
+        <v>11</v>
       </c>
       <c r="C38" t="n">
         <v>556.5700000000001</v>
@@ -2280,6 +2391,11 @@
       <c r="N38" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2287,10 +2403,8 @@
           <t>Meghalaya</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B39" t="n">
+        <v>4</v>
       </c>
       <c r="C39" t="n">
         <v>192</v>
@@ -2328,6 +2442,11 @@
       <c r="N39" t="n">
         <v>34.41277777777778</v>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2335,10 +2454,8 @@
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B40" t="n">
+        <v>5</v>
       </c>
       <c r="C40" t="n">
         <v>455.13</v>
@@ -2376,6 +2493,11 @@
       <c r="N40" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2383,10 +2505,8 @@
           <t>Kerala</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B41" t="n">
+        <v>3</v>
       </c>
       <c r="C41" t="n">
         <v>808.38</v>
@@ -2424,6 +2544,11 @@
       <c r="N41" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2431,10 +2556,8 @@
           <t>Punjab</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B42" t="n">
+        <v>4</v>
       </c>
       <c r="C42" t="n">
         <v>558.71</v>
@@ -2472,6 +2595,11 @@
       <c r="N42" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2479,10 +2607,8 @@
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B43" t="n">
+        <v>9</v>
       </c>
       <c r="C43" t="n">
         <v>690.75</v>
@@ -2520,6 +2646,11 @@
       <c r="N43" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2527,10 +2658,8 @@
           <t>West Bengal</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B44" t="n">
+        <v>9</v>
       </c>
       <c r="C44" t="n">
         <v>501.73</v>
@@ -2568,6 +2697,11 @@
       <c r="N44" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2575,10 +2709,8 @@
           <t>Meghalaya</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B45" t="n">
+        <v>10</v>
       </c>
       <c r="C45" t="n">
         <v>215</v>
@@ -2616,6 +2748,11 @@
       <c r="N45" t="n">
         <v>47.23666666666666</v>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2623,10 +2760,8 @@
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B46" t="n">
+        <v>10</v>
       </c>
       <c r="C46" t="n">
         <v>565.61</v>
@@ -2664,6 +2799,11 @@
       <c r="N46" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2671,10 +2811,8 @@
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B47" t="n">
+        <v>3</v>
       </c>
       <c r="C47" t="n">
         <v>651.65</v>
@@ -2712,6 +2850,11 @@
       <c r="N47" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2719,10 +2862,8 @@
           <t>Bihar</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B48" t="n">
+        <v>9</v>
       </c>
       <c r="C48" t="n">
         <v>688.91</v>
@@ -2760,6 +2901,11 @@
       <c r="N48" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2767,10 +2913,8 @@
           <t>Meghalaya</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B49" t="n">
+        <v>2</v>
       </c>
       <c r="C49" t="n">
         <v>401</v>
@@ -2808,6 +2952,11 @@
       <c r="N49" t="n">
         <v>46.33111111111111</v>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2815,10 +2964,8 @@
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B50" t="n">
+        <v>12</v>
       </c>
       <c r="C50" t="n">
         <v>586.14</v>
@@ -2856,6 +3003,11 @@
       <c r="N50" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2863,10 +3015,8 @@
           <t>Kerala</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B51" t="n">
+        <v>2</v>
       </c>
       <c r="C51" t="n">
         <v>932.14</v>
@@ -2904,6 +3054,11 @@
       <c r="N51" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2911,10 +3066,8 @@
           <t>Meghalaya</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B52" t="n">
+        <v>5</v>
       </c>
       <c r="C52" t="n">
         <v>183</v>
@@ -2952,6 +3105,11 @@
       <c r="N52" t="n">
         <v>28.03333333333333</v>
       </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2959,10 +3117,8 @@
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B53" t="n">
+        <v>3</v>
       </c>
       <c r="C53" t="n">
         <v>673.25</v>
@@ -3000,6 +3156,11 @@
       <c r="N53" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3007,10 +3168,8 @@
           <t>Bihar</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B54" t="n">
+        <v>8</v>
       </c>
       <c r="C54" t="n">
         <v>527.91</v>
@@ -3048,6 +3207,11 @@
       <c r="N54" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3055,10 +3219,8 @@
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B55" t="n">
+        <v>10</v>
       </c>
       <c r="C55" t="n">
         <v>688.25</v>
@@ -3096,6 +3258,11 @@
       <c r="N55" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3103,10 +3270,8 @@
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B56" t="n">
+        <v>12</v>
       </c>
       <c r="C56" t="n">
         <v>564.9299999999999</v>
@@ -3144,6 +3309,11 @@
       <c r="N56" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3151,10 +3321,8 @@
           <t>Rajasthan</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B57" t="n">
+        <v>5</v>
       </c>
       <c r="C57" t="n">
         <v>542.4400000000001</v>
@@ -3192,6 +3360,11 @@
       <c r="N57" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3199,10 +3372,8 @@
           <t>Gujarat</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B58" t="n">
+        <v>7</v>
       </c>
       <c r="C58" t="n">
         <v>899.5</v>
@@ -3240,6 +3411,11 @@
       <c r="N58" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3247,10 +3423,8 @@
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B59" t="n">
+        <v>2</v>
       </c>
       <c r="C59" t="n">
         <v>639.17</v>
@@ -3288,6 +3462,11 @@
       <c r="N59" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3295,10 +3474,8 @@
           <t>Meghalaya</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B60" t="n">
+        <v>11</v>
       </c>
       <c r="C60" t="n">
         <v>181</v>
@@ -3336,6 +3513,11 @@
       <c r="N60" t="n">
         <v>47.57</v>
       </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3343,10 +3525,8 @@
           <t>Rajasthan</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B61" t="n">
+        <v>6</v>
       </c>
       <c r="C61" t="n">
         <v>659.4400000000001</v>
@@ -3384,6 +3564,11 @@
       <c r="N61" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3391,10 +3576,8 @@
           <t>West Bengal</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B62" t="n">
+        <v>4</v>
       </c>
       <c r="C62" t="n">
         <v>416.09</v>
@@ -3432,6 +3615,11 @@
       <c r="N62" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3439,10 +3627,8 @@
           <t>Andhra Pradesh</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B63" t="n">
+        <v>7</v>
       </c>
       <c r="C63" t="n">
         <v>580</v>
@@ -3480,6 +3666,11 @@
       <c r="N63" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3487,10 +3678,8 @@
           <t>Uttar Pradesh</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B64" t="n">
+        <v>8</v>
       </c>
       <c r="C64" t="n">
         <v>842.1900000000001</v>
@@ -3528,6 +3717,11 @@
       <c r="N64" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3535,10 +3729,8 @@
           <t>West Bengal</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B65" t="n">
+        <v>7</v>
       </c>
       <c r="C65" t="n">
         <v>406.64</v>
@@ -3576,6 +3768,11 @@
       <c r="N65" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3583,10 +3780,8 @@
           <t>Mizoram</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B66" t="n">
+        <v>5</v>
       </c>
       <c r="C66" t="n">
         <v>284</v>
@@ -3624,6 +3819,11 @@
       <c r="N66" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3631,10 +3831,8 @@
           <t>West Bengal</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B67" t="n">
+        <v>8</v>
       </c>
       <c r="C67" t="n">
         <v>499.73</v>
@@ -3672,6 +3870,11 @@
       <c r="N67" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3679,10 +3882,8 @@
           <t>Rajasthan</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B68" t="n">
+        <v>7</v>
       </c>
       <c r="C68" t="n">
         <v>594.11</v>
@@ -3720,6 +3921,11 @@
       <c r="N68" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3727,10 +3933,8 @@
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B69" t="n">
+        <v>6</v>
       </c>
       <c r="C69" t="n">
         <v>389.13</v>
@@ -3768,6 +3972,11 @@
       <c r="N69" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3775,10 +3984,8 @@
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B70" t="n">
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>693.3200000000001</v>
@@ -3816,6 +4023,11 @@
       <c r="N70" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3823,10 +4035,8 @@
           <t>Odisha</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B71" t="n">
+        <v>5</v>
       </c>
       <c r="C71" t="n">
         <v>997.5</v>
@@ -3864,6 +4074,11 @@
       <c r="N71" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3871,10 +4086,8 @@
           <t>Rajasthan</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B72" t="n">
+        <v>4</v>
       </c>
       <c r="C72" t="n">
         <v>542.22</v>
@@ -3912,6 +4125,11 @@
       <c r="N72" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3919,10 +4137,8 @@
           <t>Gujarat</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B73" t="n">
+        <v>8</v>
       </c>
       <c r="C73" t="n">
         <v>582</v>
@@ -3960,6 +4176,11 @@
       <c r="N73" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3967,10 +4188,8 @@
           <t>Delhi (NCT)</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B74" t="n">
+        <v>8</v>
       </c>
       <c r="C74" t="n">
         <v>929.6</v>
@@ -4008,6 +4227,11 @@
       <c r="N74" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4015,10 +4239,8 @@
           <t>Delhi (NCT)</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B75" t="n">
+        <v>7</v>
       </c>
       <c r="C75" t="n">
         <v>924.5599999999999</v>
@@ -4056,6 +4278,11 @@
       <c r="N75" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4063,10 +4290,8 @@
           <t>Meghalaya</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B76" t="n">
+        <v>6</v>
       </c>
       <c r="C76" t="n">
         <v>166</v>
@@ -4104,6 +4329,11 @@
       <c r="N76" t="n">
         <v>35.09444444444445</v>
       </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4111,10 +4341,8 @@
           <t>Rajasthan</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B77" t="n">
+        <v>8</v>
       </c>
       <c r="C77" t="n">
         <v>583.22</v>
@@ -4152,6 +4380,11 @@
       <c r="N77" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4159,10 +4392,8 @@
           <t>Odisha</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B78" t="n">
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>1345</v>
@@ -4200,6 +4431,11 @@
       <c r="N78" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4207,10 +4443,8 @@
           <t>Bihar</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B79" t="n">
+        <v>12</v>
       </c>
       <c r="C79" t="n">
         <v>1960.45</v>
@@ -4248,6 +4482,11 @@
       <c r="N79" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Severe</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4255,10 +4494,8 @@
           <t>Rajasthan</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B80" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="n">
         <v>799.89</v>
@@ -4296,6 +4533,11 @@
       <c r="N80" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4303,10 +4545,8 @@
           <t>Mizoram</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B81" t="n">
+        <v>8</v>
       </c>
       <c r="C81" t="n">
         <v>225</v>
@@ -4344,6 +4584,11 @@
       <c r="N81" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4351,10 +4596,8 @@
           <t>Gujarat</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B82" t="n">
+        <v>4</v>
       </c>
       <c r="C82" t="n">
         <v>872.5</v>
@@ -4392,6 +4635,11 @@
       <c r="N82" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4399,10 +4647,8 @@
           <t>West Bengal</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B83" t="n">
+        <v>10</v>
       </c>
       <c r="C83" t="n">
         <v>677.27</v>
@@ -4440,6 +4686,11 @@
       <c r="N83" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4447,10 +4698,8 @@
           <t>Gujarat</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B84" t="n">
+        <v>6</v>
       </c>
       <c r="C84" t="n">
         <v>629.25</v>
@@ -4488,6 +4737,11 @@
       <c r="N84" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4495,10 +4749,8 @@
           <t>Rajasthan</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B85" t="n">
+        <v>11</v>
       </c>
       <c r="C85" t="n">
         <v>1037</v>
@@ -4536,6 +4788,11 @@
       <c r="N85" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4543,10 +4800,8 @@
           <t>Rajasthan</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B86" t="n">
+        <v>9</v>
       </c>
       <c r="C86" t="n">
         <v>685.4400000000001</v>
@@ -4584,6 +4839,11 @@
       <c r="N86" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4591,10 +4851,8 @@
           <t>Punjab</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B87" t="n">
+        <v>3</v>
       </c>
       <c r="C87" t="n">
         <v>695.02</v>
@@ -4632,6 +4890,11 @@
       <c r="N87" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4639,10 +4902,8 @@
           <t>Bihar</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B88" t="n">
+        <v>5</v>
       </c>
       <c r="C88" t="n">
         <v>646.78</v>
@@ -4680,6 +4941,11 @@
       <c r="N88" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4687,10 +4953,8 @@
           <t>Rajasthan</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B89" t="n">
+        <v>10</v>
       </c>
       <c r="C89" t="n">
         <v>902.22</v>
@@ -4728,6 +4992,11 @@
       <c r="N89" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4735,10 +5004,8 @@
           <t>Bihar</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B90" t="n">
+        <v>6</v>
       </c>
       <c r="C90" t="n">
         <v>826.33</v>
@@ -4776,6 +5043,11 @@
       <c r="N90" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4783,10 +5055,8 @@
           <t>Punjab</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B91" t="n">
+        <v>12</v>
       </c>
       <c r="C91" t="n">
         <v>698.71</v>
@@ -4824,6 +5094,11 @@
       <c r="N91" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4831,10 +5106,8 @@
           <t>Bihar</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B92" t="n">
+        <v>4</v>
       </c>
       <c r="C92" t="n">
         <v>1030.89</v>
@@ -4872,6 +5145,11 @@
       <c r="N92" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4879,10 +5157,8 @@
           <t>Telangana</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B93" t="n">
+        <v>10</v>
       </c>
       <c r="C93" t="n">
         <v>510.2</v>
@@ -4920,6 +5196,11 @@
       <c r="N93" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4927,10 +5208,8 @@
           <t>Andhra Pradesh</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B94" t="n">
+        <v>5</v>
       </c>
       <c r="C94" t="n">
         <v>435</v>
@@ -4968,6 +5247,11 @@
       <c r="N94" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4975,10 +5259,8 @@
           <t>Andhra Pradesh</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B95" t="n">
+        <v>6</v>
       </c>
       <c r="C95" t="n">
         <v>548.5</v>
@@ -5016,6 +5298,11 @@
       <c r="N95" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5023,10 +5310,8 @@
           <t>Odisha</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B96" t="n">
+        <v>6</v>
       </c>
       <c r="C96" t="n">
         <v>749</v>
@@ -5064,6 +5349,11 @@
       <c r="N96" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5071,10 +5361,8 @@
           <t>Rajasthan</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B97" t="n">
+        <v>3</v>
       </c>
       <c r="C97" t="n">
         <v>704.22</v>
@@ -5112,6 +5400,11 @@
       <c r="N97" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5119,10 +5412,8 @@
           <t>Delhi (NCT)</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B98" t="n">
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>1450.81</v>
@@ -5160,6 +5451,11 @@
       <c r="N98" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5167,10 +5463,8 @@
           <t>Delhi (NCT)</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B99" t="n">
+        <v>9</v>
       </c>
       <c r="C99" t="n">
         <v>889.41</v>
@@ -5208,6 +5502,11 @@
       <c r="N99" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5215,10 +5514,8 @@
           <t>Maharashtra</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B100" t="n">
+        <v>9</v>
       </c>
       <c r="C100" t="n">
         <v>556.53</v>
@@ -5256,6 +5553,11 @@
       <c r="N100" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5263,10 +5565,8 @@
           <t>Maharashtra</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B101" t="n">
+        <v>10</v>
       </c>
       <c r="C101" t="n">
         <v>867.47</v>
@@ -5304,6 +5604,11 @@
       <c r="N101" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5311,10 +5616,8 @@
           <t>Punjab</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B102" t="n">
+        <v>10</v>
       </c>
       <c r="C102" t="n">
         <v>543.64</v>
@@ -5352,6 +5655,11 @@
       <c r="N102" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5359,10 +5667,8 @@
           <t>Bihar</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B103" t="n">
+        <v>3</v>
       </c>
       <c r="C103" t="n">
         <v>1032.1</v>
@@ -5400,6 +5706,11 @@
       <c r="N103" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5407,10 +5718,8 @@
           <t>Tripura</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B104" t="n">
+        <v>11</v>
       </c>
       <c r="C104" t="n">
         <v>790</v>
@@ -5448,6 +5757,11 @@
       <c r="N104" t="n">
         <v>47.57</v>
       </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5455,10 +5769,8 @@
           <t>Rajasthan</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B105" t="n">
+        <v>2</v>
       </c>
       <c r="C105" t="n">
         <v>858.5599999999999</v>
@@ -5496,6 +5808,11 @@
       <c r="N105" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5503,10 +5820,8 @@
           <t>Punjab</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B106" t="n">
+        <v>1</v>
       </c>
       <c r="C106" t="n">
         <v>712.01</v>
@@ -5544,6 +5859,11 @@
       <c r="N106" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5551,10 +5871,8 @@
           <t>Telangana</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B107" t="n">
+        <v>3</v>
       </c>
       <c r="C107" t="n">
         <v>474.5</v>
@@ -5592,6 +5910,11 @@
       <c r="N107" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5599,10 +5922,8 @@
           <t>Bihar</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B108" t="n">
+        <v>10</v>
       </c>
       <c r="C108" t="n">
         <v>1054.9</v>
@@ -5640,6 +5961,11 @@
       <c r="N108" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5647,10 +5973,8 @@
           <t>Jharkhand</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B109" t="n">
+        <v>8</v>
       </c>
       <c r="C109" t="n">
         <v>934</v>
@@ -5688,6 +6012,11 @@
       <c r="N109" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5695,10 +6024,8 @@
           <t>Gujarat</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B110" t="n">
+        <v>9</v>
       </c>
       <c r="C110" t="n">
         <v>622.5</v>
@@ -5736,6 +6063,11 @@
       <c r="N110" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5743,10 +6075,8 @@
           <t>Uttar Pradesh</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B111" t="n">
+        <v>7</v>
       </c>
       <c r="C111" t="n">
         <v>983.6900000000001</v>
@@ -5784,6 +6114,11 @@
       <c r="N111" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5791,10 +6126,8 @@
           <t>Bihar</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B112" t="n">
+        <v>7</v>
       </c>
       <c r="C112" t="n">
         <v>567.1</v>
@@ -5832,6 +6165,11 @@
       <c r="N112" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5839,10 +6177,8 @@
           <t>Madhya Pradesh</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B113" t="n">
+        <v>7</v>
       </c>
       <c r="C113" t="n">
         <v>519.85</v>
@@ -5880,6 +6216,11 @@
       <c r="N113" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5887,10 +6228,8 @@
           <t>Bihar</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B114" t="n">
+        <v>1</v>
       </c>
       <c r="C114" t="n">
         <v>1657</v>
@@ -5928,6 +6267,11 @@
       <c r="N114" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5935,10 +6279,8 @@
           <t>Uttar Pradesh</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B115" t="n">
+        <v>9</v>
       </c>
       <c r="C115" t="n">
         <v>957.73</v>
@@ -5976,6 +6318,11 @@
       <c r="N115" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5983,10 +6330,8 @@
           <t>Telangana</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B116" t="n">
+        <v>7</v>
       </c>
       <c r="C116" t="n">
         <v>302.4</v>
@@ -6024,6 +6369,11 @@
       <c r="N116" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6031,10 +6381,8 @@
           <t>Nagaland</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B117" t="n">
+        <v>9</v>
       </c>
       <c r="C117" t="n">
         <v>333</v>
@@ -6072,6 +6420,11 @@
       <c r="N117" t="n">
         <v>45.96666666666665</v>
       </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6079,10 +6432,8 @@
           <t>Rajasthan</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B118" t="n">
+        <v>12</v>
       </c>
       <c r="C118" t="n">
         <v>1125.22</v>
@@ -6120,6 +6471,11 @@
       <c r="N118" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6127,10 +6483,8 @@
           <t>Telangana</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B119" t="n">
+        <v>9</v>
       </c>
       <c r="C119" t="n">
         <v>317.6</v>
@@ -6168,6 +6522,11 @@
       <c r="N119" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6175,10 +6534,8 @@
           <t>Telangana</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B120" t="n">
+        <v>8</v>
       </c>
       <c r="C120" t="n">
         <v>295.8</v>
@@ -6216,6 +6573,11 @@
       <c r="N120" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6223,10 +6585,8 @@
           <t>Delhi (NCT)</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B121" t="n">
+        <v>6</v>
       </c>
       <c r="C121" t="n">
         <v>918.58</v>
@@ -6264,6 +6624,11 @@
       <c r="N121" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6271,10 +6636,8 @@
           <t>Gujarat</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B122" t="n">
+        <v>5</v>
       </c>
       <c r="C122" t="n">
         <v>605.25</v>
@@ -6312,6 +6675,11 @@
       <c r="N122" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6319,10 +6687,8 @@
           <t>Tripura</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B123" t="n">
+        <v>12</v>
       </c>
       <c r="C123" t="n">
         <v>1190</v>
@@ -6360,6 +6726,11 @@
       <c r="N123" t="n">
         <v>48.00111111111111</v>
       </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6367,10 +6738,8 @@
           <t>Bihar</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B124" t="n">
+        <v>11</v>
       </c>
       <c r="C124" t="n">
         <v>1469.82</v>
@@ -6408,6 +6777,11 @@
       <c r="N124" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6415,10 +6789,8 @@
           <t>Assam</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B125" t="n">
+        <v>1</v>
       </c>
       <c r="C125" t="n">
         <v>1520</v>
@@ -6456,6 +6828,11 @@
       <c r="N125" t="n">
         <v>51.89</v>
       </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6463,10 +6840,8 @@
           <t>Maharashtra</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B126" t="n">
+        <v>12</v>
       </c>
       <c r="C126" t="n">
         <v>932.0599999999999</v>
@@ -6504,6 +6879,11 @@
       <c r="N126" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6511,10 +6891,8 @@
           <t>Andhra Pradesh</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B127" t="n">
+        <v>4</v>
       </c>
       <c r="C127" t="n">
         <v>278.55</v>
@@ -6552,6 +6930,11 @@
       <c r="N127" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6559,10 +6942,8 @@
           <t>Madhya Pradesh</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B128" t="n">
+        <v>8</v>
       </c>
       <c r="C128" t="n">
         <v>518.92</v>
@@ -6600,6 +6981,11 @@
       <c r="N128" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6607,10 +6993,8 @@
           <t>Jharkhand</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B129" t="n">
+        <v>9</v>
       </c>
       <c r="C129" t="n">
         <v>663</v>
@@ -6648,6 +7032,11 @@
       <c r="N129" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6655,10 +7044,8 @@
           <t>Madhya Pradesh</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B130" t="n">
+        <v>6</v>
       </c>
       <c r="C130" t="n">
         <v>514.33</v>
@@ -6696,6 +7083,11 @@
       <c r="N130" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6703,10 +7095,8 @@
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B131" t="n">
+        <v>2</v>
       </c>
       <c r="C131" t="n">
         <v>798.75</v>
@@ -6744,6 +7134,11 @@
       <c r="N131" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6751,10 +7146,8 @@
           <t>Assam</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B132" t="n">
+        <v>2</v>
       </c>
       <c r="C132" t="n">
         <v>1110</v>
@@ -6792,6 +7185,11 @@
       <c r="N132" t="n">
         <v>46.33111111111111</v>
       </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6799,10 +7197,8 @@
           <t>Punjab</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B133" t="n">
+        <v>11</v>
       </c>
       <c r="C133" t="n">
         <v>671.26</v>
@@ -6840,6 +7236,11 @@
       <c r="N133" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6847,10 +7248,8 @@
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B134" t="n">
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>828.25</v>
@@ -6888,6 +7287,11 @@
       <c r="N134" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6895,10 +7299,8 @@
           <t>Kerala</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B135" t="n">
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>920</v>
@@ -6936,6 +7338,11 @@
       <c r="N135" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6943,10 +7350,8 @@
           <t>Delhi (NCT)</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B136" t="n">
+        <v>3</v>
       </c>
       <c r="C136" t="n">
         <v>923.9400000000001</v>
@@ -6984,6 +7389,11 @@
       <c r="N136" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6991,10 +7401,8 @@
           <t>Nagaland</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B137" t="n">
+        <v>10</v>
       </c>
       <c r="C137" t="n">
         <v>434</v>
@@ -7032,6 +7440,11 @@
       <c r="N137" t="n">
         <v>47.23666666666666</v>
       </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7039,10 +7452,8 @@
           <t>Bihar</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B138" t="n">
+        <v>2</v>
       </c>
       <c r="C138" t="n">
         <v>1068.67</v>
@@ -7080,6 +7491,11 @@
       <c r="N138" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7087,10 +7503,8 @@
           <t>Telangana</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B139" t="n">
+        <v>6</v>
       </c>
       <c r="C139" t="n">
         <v>307</v>
@@ -7128,6 +7542,11 @@
       <c r="N139" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7135,10 +7554,8 @@
           <t>Madhya Pradesh</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B140" t="n">
+        <v>4</v>
       </c>
       <c r="C140" t="n">
         <v>600.08</v>
@@ -7176,6 +7593,11 @@
       <c r="N140" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7183,10 +7605,8 @@
           <t>Madhya Pradesh</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B141" t="n">
+        <v>9</v>
       </c>
       <c r="C141" t="n">
         <v>550.15</v>
@@ -7224,6 +7644,11 @@
       <c r="N141" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7231,10 +7656,8 @@
           <t>Assam</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B142" t="n">
+        <v>3</v>
       </c>
       <c r="C142" t="n">
         <v>604</v>
@@ -7272,6 +7695,11 @@
       <c r="N142" t="n">
         <v>41.03666666666667</v>
       </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7279,10 +7707,8 @@
           <t>Punjab</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B143" t="n">
+        <v>2</v>
       </c>
       <c r="C143" t="n">
         <v>727.71</v>
@@ -7320,6 +7746,11 @@
       <c r="N143" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7327,10 +7758,8 @@
           <t>Jharkhand</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B144" t="n">
+        <v>11</v>
       </c>
       <c r="C144" t="n">
         <v>954</v>
@@ -7368,6 +7797,11 @@
       <c r="N144" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7375,10 +7809,8 @@
           <t>Delhi (NCT)</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B145" t="n">
+        <v>2</v>
       </c>
       <c r="C145" t="n">
         <v>1242.94</v>
@@ -7416,6 +7848,11 @@
       <c r="N145" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7423,10 +7860,8 @@
           <t>West Bengal</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B146" t="n">
+        <v>3</v>
       </c>
       <c r="C146" t="n">
         <v>668.64</v>
@@ -7464,6 +7899,11 @@
       <c r="N146" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7471,10 +7911,8 @@
           <t>Nagaland</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B147" t="n">
+        <v>11</v>
       </c>
       <c r="C147" t="n">
         <v>429</v>
@@ -7512,6 +7950,11 @@
       <c r="N147" t="n">
         <v>47.57</v>
       </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7519,10 +7962,8 @@
           <t>Jharkhand</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B148" t="n">
+        <v>7</v>
       </c>
       <c r="C148" t="n">
         <v>1390</v>
@@ -7560,6 +8001,11 @@
       <c r="N148" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7567,10 +8013,8 @@
           <t>Gujarat</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B149" t="n">
+        <v>11</v>
       </c>
       <c r="C149" t="n">
         <v>1083</v>
@@ -7608,6 +8052,11 @@
       <c r="N149" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7615,10 +8064,8 @@
           <t>Assam</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B150" t="n">
+        <v>5</v>
       </c>
       <c r="C150" t="n">
         <v>426</v>
@@ -7656,6 +8103,11 @@
       <c r="N150" t="n">
         <v>28.03333333333333</v>
       </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7663,10 +8115,8 @@
           <t>Madhya Pradesh</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B151" t="n">
+        <v>10</v>
       </c>
       <c r="C151" t="n">
         <v>800.46</v>
@@ -7704,6 +8154,11 @@
       <c r="N151" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7711,10 +8166,8 @@
           <t>Odisha</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B152" t="n">
+        <v>9</v>
       </c>
       <c r="C152" t="n">
         <v>439.5</v>
@@ -7752,6 +8205,11 @@
       <c r="N152" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7759,10 +8217,8 @@
           <t>Odisha</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B153" t="n">
+        <v>10</v>
       </c>
       <c r="C153" t="n">
         <v>875</v>
@@ -7800,6 +8256,11 @@
       <c r="N153" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7807,10 +8268,8 @@
           <t>Maharashtra</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B154" t="n">
+        <v>1</v>
       </c>
       <c r="C154" t="n">
         <v>1068.9</v>
@@ -7848,6 +8307,11 @@
       <c r="N154" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7855,10 +8319,8 @@
           <t>Uttar Pradesh</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B155" t="n">
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>1456.94</v>
@@ -7896,6 +8358,11 @@
       <c r="N155" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7903,10 +8370,8 @@
           <t>Madhya Pradesh</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B156" t="n">
+        <v>5</v>
       </c>
       <c r="C156" t="n">
         <v>480.46</v>
@@ -7944,6 +8409,11 @@
       <c r="N156" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7951,10 +8421,8 @@
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B157" t="n">
+        <v>9</v>
       </c>
       <c r="C157" t="n">
         <v>407.07</v>
@@ -7992,6 +8460,11 @@
       <c r="N157" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7999,10 +8472,8 @@
           <t>Delhi (NCT)</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B158" t="n">
+        <v>4</v>
       </c>
       <c r="C158" t="n">
         <v>811.8</v>
@@ -8040,6 +8511,11 @@
       <c r="N158" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8047,10 +8523,8 @@
           <t>Odisha</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B159" t="n">
+        <v>2</v>
       </c>
       <c r="C159" t="n">
         <v>849.5</v>
@@ -8088,6 +8562,11 @@
       <c r="N159" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8095,10 +8574,8 @@
           <t>Delhi (NCT)</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B160" t="n">
+        <v>11</v>
       </c>
       <c r="C160" t="n">
         <v>1912.66</v>
@@ -8136,6 +8613,11 @@
       <c r="N160" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>Severe</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8143,10 +8625,8 @@
           <t>Delhi (NCT)</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B161" t="n">
+        <v>12</v>
       </c>
       <c r="C161" t="n">
         <v>2012.04</v>
@@ -8184,6 +8664,11 @@
       <c r="N161" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>Severe</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8191,10 +8676,8 @@
           <t>Andhra Pradesh</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B162" t="n">
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>706.5</v>
@@ -8232,6 +8715,11 @@
       <c r="N162" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8239,10 +8727,8 @@
           <t>Delhi (NCT)</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B163" t="n">
+        <v>5</v>
       </c>
       <c r="C163" t="n">
         <v>937.85</v>
@@ -8280,6 +8766,11 @@
       <c r="N163" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8287,10 +8778,8 @@
           <t>Assam</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B164" t="n">
+        <v>6</v>
       </c>
       <c r="C164" t="n">
         <v>467</v>
@@ -8328,6 +8817,11 @@
       <c r="N164" t="n">
         <v>35.09444444444445</v>
       </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8335,10 +8829,8 @@
           <t>Delhi (NCT)</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B165" t="n">
+        <v>10</v>
       </c>
       <c r="C165" t="n">
         <v>1694.81</v>
@@ -8376,6 +8868,11 @@
       <c r="N165" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>Severe</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8383,10 +8880,8 @@
           <t>Nagaland</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B166" t="n">
+        <v>12</v>
       </c>
       <c r="C166" t="n">
         <v>506</v>
@@ -8424,6 +8919,11 @@
       <c r="N166" t="n">
         <v>48.00111111111111</v>
       </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8431,10 +8931,8 @@
           <t>Uttar Pradesh</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B167" t="n">
+        <v>6</v>
       </c>
       <c r="C167" t="n">
         <v>1015.56</v>
@@ -8472,6 +8970,11 @@
       <c r="N167" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8479,10 +8982,8 @@
           <t>Assam</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B168" t="n">
+        <v>4</v>
       </c>
       <c r="C168" t="n">
         <v>494</v>
@@ -8520,6 +9021,11 @@
       <c r="N168" t="n">
         <v>34.41277777777778</v>
       </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8527,10 +9033,8 @@
           <t>Mizoram</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B169" t="n">
+        <v>9</v>
       </c>
       <c r="C169" t="n">
         <v>221</v>
@@ -8568,6 +9072,11 @@
       <c r="N169" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8575,10 +9084,8 @@
           <t>Uttar Pradesh</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B170" t="n">
+        <v>12</v>
       </c>
       <c r="C170" t="n">
         <v>1574.53</v>
@@ -8616,6 +9123,11 @@
       <c r="N170" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>Severe</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8623,10 +9135,8 @@
           <t>Assam</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B171" t="n">
+        <v>7</v>
       </c>
       <c r="C171" t="n">
         <v>385</v>
@@ -8664,6 +9174,11 @@
       <c r="N171" t="n">
         <v>43.85555555555555</v>
       </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8671,10 +9186,8 @@
           <t>Telangana</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B172" t="n">
+        <v>12</v>
       </c>
       <c r="C172" t="n">
         <v>637.6</v>
@@ -8712,6 +9225,11 @@
       <c r="N172" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8719,10 +9237,8 @@
           <t>Odisha</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B173" t="n">
+        <v>3</v>
       </c>
       <c r="C173" t="n">
         <v>1022</v>
@@ -8760,6 +9276,11 @@
       <c r="N173" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8767,10 +9288,8 @@
           <t>Uttar Pradesh</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B174" t="n">
+        <v>2</v>
       </c>
       <c r="C174" t="n">
         <v>1275.87</v>
@@ -8808,6 +9327,11 @@
       <c r="N174" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8815,10 +9339,8 @@
           <t>Andhra Pradesh</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B175" t="n">
+        <v>10</v>
       </c>
       <c r="C175" t="n">
         <v>705</v>
@@ -8856,6 +9378,11 @@
       <c r="N175" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8863,10 +9390,8 @@
           <t>Gujarat</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B176" t="n">
+        <v>10</v>
       </c>
       <c r="C176" t="n">
         <v>935.5</v>
@@ -8904,6 +9429,11 @@
       <c r="N176" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8911,10 +9441,8 @@
           <t>Uttar Pradesh</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B177" t="n">
+        <v>11</v>
       </c>
       <c r="C177" t="n">
         <v>1607.6</v>
@@ -8952,6 +9480,11 @@
       <c r="N177" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>Severe</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8959,10 +9492,8 @@
           <t>Madhya Pradesh</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B178" t="n">
+        <v>1</v>
       </c>
       <c r="C178" t="n">
         <v>850.5</v>
@@ -9000,6 +9531,11 @@
       <c r="N178" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9007,10 +9543,8 @@
           <t>Uttar Pradesh</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B179" t="n">
+        <v>5</v>
       </c>
       <c r="C179" t="n">
         <v>1077.14</v>
@@ -9048,6 +9582,11 @@
       <c r="N179" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9055,10 +9594,8 @@
           <t>Uttar Pradesh</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B180" t="n">
+        <v>10</v>
       </c>
       <c r="C180" t="n">
         <v>1433.4</v>
@@ -9096,6 +9633,11 @@
       <c r="N180" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9103,10 +9645,8 @@
           <t>Madhya Pradesh</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B181" t="n">
+        <v>2</v>
       </c>
       <c r="C181" t="n">
         <v>882.54</v>
@@ -9144,6 +9684,11 @@
       <c r="N181" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9151,10 +9696,8 @@
           <t>Telangana</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B182" t="n">
+        <v>1</v>
       </c>
       <c r="C182" t="n">
         <v>553.67</v>
@@ -9192,6 +9735,11 @@
       <c r="N182" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9199,10 +9747,8 @@
           <t>Uttar Pradesh</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B183" t="n">
+        <v>3</v>
       </c>
       <c r="C183" t="n">
         <v>1118.33</v>
@@ -9240,6 +9786,11 @@
       <c r="N183" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9247,10 +9798,8 @@
           <t>West Bengal</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B184" t="n">
+        <v>1</v>
       </c>
       <c r="C184" t="n">
         <v>1089.75</v>
@@ -9288,6 +9837,11 @@
       <c r="N184" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9295,10 +9849,8 @@
           <t>Maharashtra</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B185" t="n">
+        <v>11</v>
       </c>
       <c r="C185" t="n">
         <v>954</v>
@@ -9336,6 +9888,11 @@
       <c r="N185" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9343,10 +9900,8 @@
           <t>Jharkhand</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B186" t="n">
+        <v>12</v>
       </c>
       <c r="C186" t="n">
         <v>990</v>
@@ -9384,6 +9939,11 @@
       <c r="N186" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9391,10 +9951,8 @@
           <t>Odisha</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B187" t="n">
+        <v>7</v>
       </c>
       <c r="C187" t="n">
         <v>699.5</v>
@@ -9432,6 +9990,11 @@
       <c r="N187" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9439,10 +10002,8 @@
           <t>Madhya Pradesh</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B188" t="n">
+        <v>11</v>
       </c>
       <c r="C188" t="n">
         <v>870.1799999999999</v>
@@ -9480,6 +10041,11 @@
       <c r="N188" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9487,10 +10053,8 @@
           <t>West Bengal</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B189" t="n">
+        <v>11</v>
       </c>
       <c r="C189" t="n">
         <v>790.67</v>
@@ -9528,6 +10092,11 @@
       <c r="N189" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9535,10 +10104,8 @@
           <t>Uttar Pradesh</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B190" t="n">
+        <v>4</v>
       </c>
       <c r="C190" t="n">
         <v>1054.93</v>
@@ -9576,6 +10143,11 @@
       <c r="N190" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9583,10 +10155,8 @@
           <t>West Bengal</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B191" t="n">
+        <v>2</v>
       </c>
       <c r="C191" t="n">
         <v>883.1799999999999</v>
@@ -9624,6 +10194,11 @@
       <c r="N191" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9631,10 +10206,8 @@
           <t>Odisha</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B192" t="n">
+        <v>8</v>
       </c>
       <c r="C192" t="n">
         <v>1242.5</v>
@@ -9672,6 +10245,11 @@
       <c r="N192" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9679,10 +10257,8 @@
           <t>Assam</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B193" t="n">
+        <v>8</v>
       </c>
       <c r="C193" t="n">
         <v>443</v>
@@ -9720,6 +10296,11 @@
       <c r="N193" t="n">
         <v>49.06111111111111</v>
       </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -9727,10 +10308,8 @@
           <t>Maharashtra</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B194" t="n">
+        <v>3</v>
       </c>
       <c r="C194" t="n">
         <v>709.83</v>
@@ -9768,6 +10347,11 @@
       <c r="N194" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -9775,10 +10359,8 @@
           <t>Assam</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B195" t="n">
+        <v>9</v>
       </c>
       <c r="C195" t="n">
         <v>591</v>
@@ -9816,6 +10398,11 @@
       <c r="N195" t="n">
         <v>45.96666666666665</v>
       </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -9823,10 +10410,8 @@
           <t>Madhya Pradesh</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B196" t="n">
+        <v>3</v>
       </c>
       <c r="C196" t="n">
         <v>683.6900000000001</v>
@@ -9864,6 +10449,11 @@
       <c r="N196" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -9871,10 +10461,8 @@
           <t>Telangana</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B197" t="n">
+        <v>11</v>
       </c>
       <c r="C197" t="n">
         <v>495.4</v>
@@ -9912,6 +10500,11 @@
       <c r="N197" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -9919,10 +10512,8 @@
           <t>Gujarat</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B198" t="n">
+        <v>12</v>
       </c>
       <c r="C198" t="n">
         <v>1221.75</v>
@@ -9960,6 +10551,11 @@
       <c r="N198" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -9967,10 +10563,8 @@
           <t>Mizoram</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B199" t="n">
+        <v>10</v>
       </c>
       <c r="C199" t="n">
         <v>195</v>
@@ -10008,6 +10602,11 @@
       <c r="N199" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10015,10 +10614,8 @@
           <t>Andhra Pradesh</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B200" t="n">
+        <v>2</v>
       </c>
       <c r="C200" t="n">
         <v>694.25</v>
@@ -10056,6 +10653,11 @@
       <c r="N200" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10063,10 +10665,8 @@
           <t>Assam</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B201" t="n">
+        <v>10</v>
       </c>
       <c r="C201" t="n">
         <v>736</v>
@@ -10104,6 +10704,11 @@
       <c r="N201" t="n">
         <v>47.23666666666666</v>
       </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10111,10 +10716,8 @@
           <t>Andhra Pradesh</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B202" t="n">
+        <v>3</v>
       </c>
       <c r="C202" t="n">
         <v>545</v>
@@ -10152,6 +10755,11 @@
       <c r="N202" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10159,10 +10767,8 @@
           <t>Haryana</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="B203" t="n">
+        <v>9</v>
       </c>
       <c r="C203" t="n">
         <v>666.6</v>
@@ -10200,6 +10806,11 @@
       <c r="N203" t="n">
         <v>12.38740740740741</v>
       </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -10207,10 +10818,8 @@
           <t>Maharashtra</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B204" t="n">
+        <v>2</v>
       </c>
       <c r="C204" t="n">
         <v>1068.22</v>
@@ -10248,6 +10857,11 @@
       <c r="N204" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -10255,10 +10869,8 @@
           <t>Haryana</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B205" t="n">
+        <v>12</v>
       </c>
       <c r="C205" t="n">
         <v>1389.81</v>
@@ -10296,6 +10908,11 @@
       <c r="N205" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -10303,10 +10920,8 @@
           <t>Madhya Pradesh</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B206" t="n">
+        <v>12</v>
       </c>
       <c r="C206" t="n">
         <v>932.9299999999999</v>
@@ -10344,6 +10959,11 @@
       <c r="N206" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -10351,10 +10971,8 @@
           <t>Jharkhand</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B207" t="n">
+        <v>6</v>
       </c>
       <c r="C207" t="n">
         <v>1320</v>
@@ -10392,6 +11010,11 @@
       <c r="N207" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -10399,10 +11022,8 @@
           <t>Odisha</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B208" t="n">
+        <v>11</v>
       </c>
       <c r="C208" t="n">
         <v>1295</v>
@@ -10440,6 +11061,11 @@
       <c r="N208" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -10447,10 +11073,8 @@
           <t>West Bengal</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B209" t="n">
+        <v>12</v>
       </c>
       <c r="C209" t="n">
         <v>1323.67</v>
@@ -10488,6 +11112,11 @@
       <c r="N209" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -10495,10 +11124,8 @@
           <t>Haryana</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B210" t="n">
+        <v>1</v>
       </c>
       <c r="C210" t="n">
         <v>1167.39</v>
@@ -10536,6 +11163,11 @@
       <c r="N210" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -10543,10 +11175,8 @@
           <t>Assam</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B211" t="n">
+        <v>11</v>
       </c>
       <c r="C211" t="n">
         <v>1110</v>
@@ -10584,6 +11214,11 @@
       <c r="N211" t="n">
         <v>47.57</v>
       </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -10591,10 +11226,8 @@
           <t>Haryana</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
+      <c r="B212" t="n">
+        <v>10</v>
       </c>
       <c r="C212" t="n">
         <v>1148.35</v>
@@ -10632,6 +11265,11 @@
       <c r="N212" t="n">
         <v>13.22296296296296</v>
       </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -10639,10 +11277,8 @@
           <t>Telangana</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B213" t="n">
+        <v>2</v>
       </c>
       <c r="C213" t="n">
         <v>519.5</v>
@@ -10680,6 +11316,11 @@
       <c r="N213" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -10687,10 +11328,8 @@
           <t>Haryana</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="B214" t="n">
+        <v>8</v>
       </c>
       <c r="C214" t="n">
         <v>524.77</v>
@@ -10728,6 +11367,11 @@
       <c r="N214" t="n">
         <v>11.65481481481481</v>
       </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -10735,10 +11379,8 @@
           <t>Jharkhand</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B215" t="n">
+        <v>5</v>
       </c>
       <c r="C215" t="n">
         <v>964</v>
@@ -10776,6 +11418,11 @@
       <c r="N215" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -10783,10 +11430,8 @@
           <t>Assam</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B216" t="n">
+        <v>12</v>
       </c>
       <c r="C216" t="n">
         <v>1630</v>
@@ -10824,6 +11469,11 @@
       <c r="N216" t="n">
         <v>48.00111111111111</v>
       </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>Severe</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -10831,10 +11481,8 @@
           <t>Haryana</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B217" t="n">
+        <v>4</v>
       </c>
       <c r="C217" t="n">
         <v>552.45</v>
@@ -10872,6 +11520,11 @@
       <c r="N217" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -10879,10 +11532,8 @@
           <t>Haryana</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B218" t="n">
+        <v>2</v>
       </c>
       <c r="C218" t="n">
         <v>923.8</v>
@@ -10920,6 +11571,11 @@
       <c r="N218" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -10927,10 +11583,8 @@
           <t>Haryana</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B219" t="n">
+        <v>6</v>
       </c>
       <c r="C219" t="n">
         <v>664.99</v>
@@ -10968,6 +11622,11 @@
       <c r="N219" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -10975,10 +11634,8 @@
           <t>Odisha</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B220" t="n">
+        <v>12</v>
       </c>
       <c r="C220" t="n">
         <v>1535</v>
@@ -11016,6 +11673,11 @@
       <c r="N220" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -11023,10 +11685,8 @@
           <t>Jharkhand</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B221" t="n">
+        <v>1</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -11064,6 +11724,11 @@
       <c r="N221" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -11071,10 +11736,8 @@
           <t>Haryana</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="B222" t="n">
+        <v>11</v>
       </c>
       <c r="C222" t="n">
         <v>1345.1</v>
@@ -11112,6 +11775,11 @@
       <c r="N222" t="n">
         <v>14.1437037037037</v>
       </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -11119,10 +11787,8 @@
           <t>Haryana</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B223" t="n">
+        <v>3</v>
       </c>
       <c r="C223" t="n">
         <v>691.92</v>
@@ -11160,6 +11826,11 @@
       <c r="N223" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -11167,10 +11838,8 @@
           <t>Gujarat</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B224" t="n">
+        <v>3</v>
       </c>
       <c r="C224" t="n">
         <v>875.75</v>
@@ -11208,6 +11877,11 @@
       <c r="N224" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -11215,10 +11889,8 @@
           <t>Jharkhand</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B225" t="n">
+        <v>2</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -11256,6 +11928,11 @@
       <c r="N225" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -11263,10 +11940,8 @@
           <t>Jharkhand</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="B226" t="n">
+        <v>3</v>
       </c>
       <c r="C226" t="n">
         <v>1030</v>
@@ -11304,6 +11979,11 @@
       <c r="N226" t="n">
         <v>12.64888888888889</v>
       </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -11311,10 +11991,8 @@
           <t>Punjab</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="B227" t="n">
+        <v>6</v>
       </c>
       <c r="C227" t="n">
         <v>441</v>
@@ -11352,6 +12030,11 @@
       <c r="N227" t="n">
         <v>9.051851851851852</v>
       </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -11359,10 +12042,8 @@
           <t>Gujarat</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="B228" t="n">
+        <v>2</v>
       </c>
       <c r="C228" t="n">
         <v>1222.75</v>
@@ -11400,6 +12081,11 @@
       <c r="N228" t="n">
         <v>13.49555555555556</v>
       </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -11407,10 +12093,8 @@
           <t>Jharkhand</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B229" t="n">
+        <v>4</v>
       </c>
       <c r="C229" t="n">
         <v>1830</v>
@@ -11448,6 +12132,11 @@
       <c r="N229" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>Severe</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -11455,10 +12144,8 @@
           <t>Gujarat</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="B230" t="n">
+        <v>1</v>
       </c>
       <c r="C230" t="n">
         <v>1128.25</v>
@@ -11496,6 +12183,11 @@
       <c r="N230" t="n">
         <v>14.59851851851852</v>
       </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -11503,10 +12195,8 @@
           <t>Haryana</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B231" t="n">
+        <v>5</v>
       </c>
       <c r="C231" t="n">
         <v>626.96</v>
@@ -11544,6 +12234,11 @@
       <c r="N231" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -11551,10 +12246,8 @@
           <t>Maharashtra</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
+      <c r="B232" t="n">
+        <v>4</v>
       </c>
       <c r="C232" t="n">
         <v>529.47</v>
@@ -11592,6 +12285,11 @@
       <c r="N232" t="n">
         <v>10.40222222222222</v>
       </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -11599,10 +12297,8 @@
           <t>Haryana</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="B233" t="n">
+        <v>7</v>
       </c>
       <c r="C233" t="n">
         <v>536.52</v>
@@ -11640,6 +12336,11 @@
       <c r="N233" t="n">
         <v>10.54185185185185</v>
       </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -11647,10 +12348,8 @@
           <t>Punjab</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="B234" t="n">
+        <v>5</v>
       </c>
       <c r="C234" t="n">
         <v>455</v>
@@ -11688,6 +12387,11 @@
       <c r="N234" t="n">
         <v>9.486296296296297</v>
       </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -11695,10 +12399,8 @@
           <t>Andhra Pradesh</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B235" t="n">
+        <v>12</v>
       </c>
       <c r="C235" t="n">
         <v>895.75</v>
@@ -11736,6 +12438,11 @@
       <c r="N235" t="n">
         <v>14.83444444444444</v>
       </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -11743,10 +12450,8 @@
           <t>Chhattisgarh</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="B236" t="n">
+        <v>12</v>
       </c>
       <c r="C236" t="n">
         <v>471</v>
@@ -11783,6 +12488,11 @@
       </c>
       <c r="N236" t="n">
         <v>14.83444444444444</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
       </c>
     </row>
   </sheetData>
